--- a/заказы/статистика филиалы/2023/12,23/26,12,23 КИ/дв 26,12,23 млрсч.xlsx
+++ b/заказы/статистика филиалы/2023/12,23/26,12,23 КИ/дв 26,12,23 млрсч.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\26,12,23 филиалы КИ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\12,23\26,12,23 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D494118E-0A0C-401A-B169-ED0A61940872}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EF2C44-72C6-4B7E-A7FE-9B4747EFB564}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$3:$AA$76</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="101">
   <si>
     <t>Период: 20.12.2023 - 26.12.2023</t>
   </si>
@@ -337,6 +337,9 @@
   <si>
     <t>Вареные колбасы «Любительская ГОСТ» Весовой п/а ТМ «Вязанка»</t>
   </si>
+  <si>
+    <t>согласовал Химич</t>
+  </si>
 </sst>
 </file>
 
@@ -353,6 +356,8 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -694,7 +699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -773,6 +778,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -7379,7 +7385,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD13" sqref="AD13"/>
+      <selection pane="bottomLeft" activeCell="AC7" sqref="AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -13775,6 +13781,9 @@
       <c r="Y76" s="2">
         <v>0</v>
       </c>
+      <c r="Z76" s="40" t="s">
+        <v>100</v>
+      </c>
       <c r="AA76" s="2">
         <f t="shared" si="20"/>
         <v>10</v>
